--- a/eclipse-workspace/test-files/productsWithEmptyValues.xlsx
+++ b/eclipse-workspace/test-files/productsWithEmptyValues.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>product_num</t>
   </si>
@@ -859,7 +859,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -882,14 +882,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>122</v>
-      </c>
       <c r="B2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
       </c>
       <c r="D2">
         <v>2.9</v>
